--- a/WebMarket/WebMarket/App_Data/TemperatureRelay.xlsx
+++ b/WebMarket/WebMarket/App_Data/TemperatureRelay.xlsx
@@ -85,9 +85,6 @@
     <t>ТР-1</t>
   </si>
   <si>
-    <t>ТР-1.png</t>
-  </si>
-  <si>
     <t>Энергохит</t>
   </si>
   <si>
@@ -142,9 +139,6 @@
     <t>ТК-6</t>
   </si>
   <si>
-    <t>ТК-6.png</t>
-  </si>
-  <si>
     <t>0,1 °C</t>
   </si>
   <si>
@@ -182,6 +176,12 @@
   </si>
   <si>
     <t>Количество каналов измерения=3&amp;Диапазон регулируемых температур=–55,9… +127,9°C, шаг: 0,1°C&amp;Зона гистерезиса (dT)=0,1…39,9°C, шаг: 0,1°C&amp;Выход НАГРЕВ=реле (max 6A(250В))&amp;=реле (max 6A(250В))Выход НАСОС&amp;Потребляемая мощность=не более 5 Вт&amp;Корпус=на DIN рейку 70х70х90мм</t>
+  </si>
+  <si>
+    <t>TP-1.png</t>
+  </si>
+  <si>
+    <t>TK-6.png</t>
   </si>
 </sst>
 </file>
@@ -531,11 +531,12 @@
   <dimension ref="A1:V11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="5" max="5" width="17.140625" customWidth="1"/>
     <col min="18" max="18" width="20.85546875" customWidth="1"/>
     <col min="21" max="21" width="18.5703125" customWidth="1"/>
   </cols>
@@ -619,10 +620,10 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" t="s">
         <v>23</v>
-      </c>
-      <c r="F2" t="s">
-        <v>24</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -634,13 +635,13 @@
         <v>5</v>
       </c>
       <c r="O2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>44</v>
+      </c>
+      <c r="R2" t="s">
         <v>25</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>46</v>
-      </c>
-      <c r="R2" t="s">
-        <v>26</v>
       </c>
       <c r="S2">
         <v>-50</v>
@@ -649,15 +650,15 @@
         <v>125</v>
       </c>
       <c r="U2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="V2" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B3">
         <v>305</v>
@@ -666,10 +667,10 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -681,13 +682,13 @@
         <v>5</v>
       </c>
       <c r="O3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>46</v>
+      </c>
+      <c r="R3" t="s">
         <v>25</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>48</v>
-      </c>
-      <c r="R3" t="s">
-        <v>26</v>
       </c>
       <c r="S3">
         <v>-55.9</v>
@@ -696,15 +697,15 @@
         <v>127.9</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B4">
         <v>323</v>
@@ -713,10 +714,10 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -728,13 +729,13 @@
         <v>5</v>
       </c>
       <c r="O4" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="R4" t="s">
         <v>25</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="R4" t="s">
-        <v>26</v>
       </c>
       <c r="S4">
         <v>-50</v>
@@ -743,15 +744,15 @@
         <v>125</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B5">
         <v>677</v>
@@ -760,10 +761,10 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -775,13 +776,13 @@
         <v>5</v>
       </c>
       <c r="O5" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>48</v>
+      </c>
+      <c r="R5" t="s">
         <v>25</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>50</v>
-      </c>
-      <c r="R5" t="s">
-        <v>26</v>
       </c>
       <c r="S5">
         <v>0</v>
@@ -790,15 +791,15 @@
         <v>999</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B6">
         <v>320</v>
@@ -807,10 +808,10 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -822,13 +823,13 @@
         <v>5</v>
       </c>
       <c r="O6" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>49</v>
+      </c>
+      <c r="R6" t="s">
         <v>25</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>51</v>
-      </c>
-      <c r="R6" t="s">
-        <v>26</v>
       </c>
       <c r="S6">
         <v>5</v>
@@ -837,15 +838,15 @@
         <v>40</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B7">
         <v>305</v>
@@ -854,10 +855,10 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -869,13 +870,13 @@
         <v>5</v>
       </c>
       <c r="O7" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>50</v>
+      </c>
+      <c r="R7" t="s">
         <v>25</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>52</v>
-      </c>
-      <c r="R7" t="s">
-        <v>26</v>
       </c>
       <c r="S7">
         <v>0</v>
@@ -884,15 +885,15 @@
         <v>125</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B8">
         <v>447</v>
@@ -901,10 +902,10 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -916,13 +917,13 @@
         <v>5</v>
       </c>
       <c r="O8" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>51</v>
+      </c>
+      <c r="R8" t="s">
         <v>25</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>53</v>
-      </c>
-      <c r="R8" t="s">
-        <v>26</v>
       </c>
       <c r="S8">
         <v>0</v>
@@ -931,15 +932,15 @@
         <v>125</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B9">
         <v>511</v>
@@ -948,10 +949,10 @@
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I9">
         <v>2</v>
@@ -963,13 +964,13 @@
         <v>5</v>
       </c>
       <c r="O9" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>52</v>
+      </c>
+      <c r="R9" t="s">
         <v>25</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>54</v>
-      </c>
-      <c r="R9" t="s">
-        <v>26</v>
       </c>
       <c r="S9">
         <v>0</v>
@@ -978,15 +979,15 @@
         <v>125</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B10">
         <v>480</v>
@@ -995,10 +996,10 @@
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="F10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -1010,13 +1011,13 @@
         <v>5</v>
       </c>
       <c r="O10" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>45</v>
+      </c>
+      <c r="R10" t="s">
         <v>25</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>47</v>
-      </c>
-      <c r="R10" t="s">
-        <v>26</v>
       </c>
       <c r="S10">
         <v>-55.9</v>
@@ -1025,15 +1026,15 @@
         <v>127.9</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B11">
         <v>615</v>
@@ -1042,10 +1043,10 @@
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I11">
         <v>2</v>
@@ -1057,13 +1058,13 @@
         <v>5</v>
       </c>
       <c r="O11" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>53</v>
+      </c>
+      <c r="R11" t="s">
         <v>25</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>55</v>
-      </c>
-      <c r="R11" t="s">
-        <v>26</v>
       </c>
       <c r="S11">
         <v>0</v>
@@ -1072,10 +1073,10 @@
         <v>90</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="V11" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
